--- a/2-Empirical-Evidence/raw_data/Maine.xlsx
+++ b/2-Empirical-Evidence/raw_data/Maine.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN230010000000003</t>
@@ -730,10 +746,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>6.8</v>
@@ -828,10 +856,20 @@
       <c r="AF5" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>3829.0</v>
@@ -926,10 +964,20 @@
       <c r="AF6" t="n" s="8">
         <v>2735.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>2718.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>1527.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>1591.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>52465.0</v>
@@ -1024,10 +1072,20 @@
       <c r="AF7" t="n" s="8">
         <v>51281.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>51905.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>51679.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>52165.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>56294.0</v>
@@ -1122,10 +1180,20 @@
       <c r="AF8" t="n" s="8">
         <v>54016.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>54623.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>53206.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>53756.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>6.9</v>
@@ -1220,10 +1288,20 @@
       <c r="AF9" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>2703.0</v>
@@ -1318,10 +1396,20 @@
       <c r="AF10" t="n" s="8">
         <v>1493.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>1695.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>1138.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>1115.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>36205.0</v>
@@ -1416,10 +1504,20 @@
       <c r="AF11" t="n" s="8">
         <v>27574.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>27616.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>27631.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>27505.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>38908.0</v>
@@ -1514,10 +1612,20 @@
       <c r="AF12" t="n" s="8">
         <v>29067.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>29311.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>28769.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>28620.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>3.8</v>
@@ -1612,10 +1720,20 @@
       <c r="AF13" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>5079.0</v>
@@ -1710,10 +1828,20 @@
       <c r="AF14" t="n" s="8">
         <v>7852.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>6672.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>3767.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>3988.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>128068.0</v>
@@ -1808,10 +1936,20 @@
       <c r="AF15" t="n" s="8">
         <v>152096.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>157369.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>159534.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>162199.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>133147.0</v>
@@ -1906,10 +2044,20 @@
       <c r="AF16" t="n" s="8">
         <v>159948.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>164041.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>163301.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>166187.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>6.4</v>
@@ -2004,10 +2152,20 @@
       <c r="AF17" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>925.0</v>
@@ -2102,10 +2260,20 @@
       <c r="AF18" t="n" s="8">
         <v>775.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>750.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>473.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>488.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>13542.0</v>
@@ -2200,10 +2368,20 @@
       <c r="AF19" t="n" s="8">
         <v>12886.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>13194.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>13316.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>13303.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>14467.0</v>
@@ -2298,10 +2476,20 @@
       <c r="AF20" t="n" s="8">
         <v>13661.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>13944.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>13789.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>13791.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>5.0</v>
@@ -2396,10 +2584,20 @@
       <c r="AF21" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>1236.0</v>
@@ -2494,10 +2692,20 @@
       <c r="AF22" t="n" s="8">
         <v>1487.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>1453.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>967.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>929.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>23340.0</v>
@@ -2592,10 +2800,20 @@
       <c r="AF23" t="n" s="8">
         <v>26104.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>27365.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>27778.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>27799.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>24576.0</v>
@@ -2690,10 +2908,20 @@
       <c r="AF24" t="n" s="8">
         <v>27591.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>28818.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>28745.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>28728.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>4.5</v>
@@ -2788,10 +3016,20 @@
       <c r="AF25" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>2748.0</v>
@@ -2886,10 +3124,20 @@
       <c r="AF26" t="n" s="8">
         <v>2812.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>2723.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>1671.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>1630.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>58340.0</v>
@@ -2984,10 +3232,20 @@
       <c r="AF27" t="n" s="8">
         <v>58248.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>59260.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>60056.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>60714.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>61088.0</v>
@@ -3082,10 +3340,20 @@
       <c r="AF28" t="n" s="8">
         <v>61060.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>61983.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>61727.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>62344.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>5.2</v>
@@ -3180,10 +3448,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>942.0</v>
@@ -3278,10 +3556,20 @@
       <c r="AF30" t="n" s="8">
         <v>982.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>897.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>574.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>574.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>17155.0</v>
@@ -3376,10 +3664,20 @@
       <c r="AF31" t="n" s="8">
         <v>18488.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>19229.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>19447.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>19419.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>18097.0</v>
@@ -3474,10 +3772,20 @@
       <c r="AF32" t="n" s="8">
         <v>19470.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>20126.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>20021.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>19993.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>3.5</v>
@@ -3572,10 +3880,20 @@
       <c r="AF33" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>535.0</v>
@@ -3670,10 +3988,20 @@
       <c r="AF34" t="n" s="8">
         <v>805.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>759.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>464.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>469.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>14800.0</v>
@@ -3768,10 +4096,20 @@
       <c r="AF35" t="n" s="8">
         <v>15504.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>16190.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>16316.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>16366.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>15335.0</v>
@@ -3866,10 +4204,20 @@
       <c r="AF36" t="n" s="8">
         <v>16309.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>16949.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>16780.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>16835.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>7.0</v>
@@ -3964,10 +4312,20 @@
       <c r="AF37" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>1760.0</v>
@@ -4062,10 +4420,20 @@
       <c r="AF38" t="n" s="8">
         <v>1574.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>1500.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>825.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>836.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>23382.0</v>
@@ -4160,10 +4528,20 @@
       <c r="AF39" t="n" s="8">
         <v>24072.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>25020.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>25234.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>25375.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>25142.0</v>
@@ -4258,10 +4636,20 @@
       <c r="AF40" t="n" s="8">
         <v>25646.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>26520.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>26059.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>26211.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>5.8</v>
@@ -4356,10 +4744,20 @@
       <c r="AF41" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>4341.0</v>
@@ -4454,10 +4852,20 @@
       <c r="AF42" t="n" s="8">
         <v>3716.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>3645.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>2238.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>2281.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>70082.0</v>
@@ -4552,10 +4960,20 @@
       <c r="AF43" t="n" s="8">
         <v>70142.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>71805.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>71644.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>72160.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>74423.0</v>
@@ -4650,10 +5068,20 @@
       <c r="AF44" t="n" s="8">
         <v>73858.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>75450.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>73882.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>74441.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>6.4</v>
@@ -4748,10 +5176,20 @@
       <c r="AF45" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>558.0</v>
@@ -4846,10 +5284,20 @@
       <c r="AF46" t="n" s="8">
         <v>361.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>385.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>269.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>298.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>8114.0</v>
@@ -4944,10 +5392,20 @@
       <c r="AF47" t="n" s="8">
         <v>6764.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>7150.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>7076.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>6802.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>8672.0</v>
@@ -5042,10 +5500,20 @@
       <c r="AF48" t="n" s="8">
         <v>7125.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>7535.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>7345.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>7100.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>3.5</v>
@@ -5140,10 +5608,20 @@
       <c r="AF49" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>568.0</v>
@@ -5238,10 +5716,20 @@
       <c r="AF50" t="n" s="8">
         <v>843.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>734.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>437.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>443.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>15597.0</v>
@@ -5336,10 +5824,20 @@
       <c r="AF51" t="n" s="8">
         <v>18309.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>18641.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>18706.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>18780.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>16165.0</v>
@@ -5434,10 +5932,20 @@
       <c r="AF52" t="n" s="8">
         <v>19152.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>19375.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>19143.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>19223.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>6.9</v>
@@ -5532,10 +6040,20 @@
       <c r="AF53" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>1699.0</v>
@@ -5630,10 +6148,20 @@
       <c r="AF54" t="n" s="8">
         <v>1353.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>1429.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>873.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>922.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>22853.0</v>
@@ -5728,10 +6256,20 @@
       <c r="AF55" t="n" s="8">
         <v>20557.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>21122.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>21181.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>21166.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>24552.0</v>
@@ -5826,10 +6364,20 @@
       <c r="AF56" t="n" s="8">
         <v>21910.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>22551.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>22054.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>22088.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>7.3</v>
@@ -5924,10 +6472,20 @@
       <c r="AF57" t="n" s="10">
         <v>4.8</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>1186.0</v>
@@ -6022,10 +6580,20 @@
       <c r="AF58" t="n" s="8">
         <v>950.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>977.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>620.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>615.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>14970.0</v>
@@ -6120,10 +6688,20 @@
       <c r="AF59" t="n" s="8">
         <v>18938.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>19492.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>19736.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>19714.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>16156.0</v>
@@ -6218,10 +6796,20 @@
       <c r="AF60" t="n" s="8">
         <v>19888.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>20469.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>20356.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>20329.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>7.6</v>
@@ -6316,10 +6904,20 @@
       <c r="AF61" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>1186.0</v>
@@ -6414,10 +7012,20 @@
       <c r="AF62" t="n" s="8">
         <v>775.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>886.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>552.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>553.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>14329.0</v>
@@ -6512,10 +7120,20 @@
       <c r="AF63" t="n" s="8">
         <v>12510.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>12689.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>12868.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>12847.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>15515.0</v>
@@ -6610,10 +7228,20 @@
       <c r="AF64" t="n" s="8">
         <v>13285.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>13575.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>13420.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>13400.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>4.8</v>
@@ -6708,10 +7336,20 @@
       <c r="AF65" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>4314.0</v>
@@ -6806,10 +7444,20 @@
       <c r="AF66" t="n" s="8">
         <v>5480.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>5177.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>2944.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>2966.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>85089.0</v>
@@ -6904,10 +7552,20 @@
       <c r="AF67" t="n" s="8">
         <v>104512.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>108093.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>109630.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>111302.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>89403.0</v>
@@ -7002,6 +7660,16 @@
       <c r="AF68" t="n" s="8">
         <v>109992.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>113270.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>112574.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>114268.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -7012,7 +7680,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:20:29 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:41:33 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
